--- a/trunk/ProjectDocuments/FinalDoc/FileToPrint/Itegration Plan.xlsx
+++ b/trunk/ProjectDocuments/FinalDoc/FileToPrint/Itegration Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Sprint</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>22/05/2010</t>
-  </si>
-  <si>
-    <t>Lên Kế Hoạch</t>
   </si>
   <si>
     <t>Đang Thực Hiện</t>
@@ -91,31 +88,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,60 +114,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF006100"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,21 +133,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -309,58 +226,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,12 +247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -384,16 +262,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
-    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="Accent5" xfId="5" builtinId="45"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,221 +562,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1"/>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="47.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1"/>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="31.5">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="53.25" customHeight="1">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75">
-      <c r="A14" s="4">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="2">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="2">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -914,11 +738,11 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E14">
-      <formula1>$J$11:$J$13</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
